--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationComplete.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
